--- a/SampleMafeach.xlsx
+++ b/SampleMafeach.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="256">
   <si>
     <t>sif</t>
   </si>
@@ -38,34 +38,31 @@
     <t>section</t>
   </si>
   <si>
+    <t>א</t>
+  </si>
+  <si>
     <t>ג</t>
   </si>
   <si>
-    <t>א</t>
+    <t>-</t>
   </si>
   <si>
     <t>ב</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>יב</t>
+    <t>ה</t>
+  </si>
+  <si>
+    <t>ד</t>
+  </si>
+  <si>
+    <t>ו</t>
   </si>
   <si>
     <t>י</t>
   </si>
   <si>
-    <t>ד</t>
-  </si>
-  <si>
-    <t>ה</t>
-  </si>
-  <si>
-    <t>ו</t>
-  </si>
-  <si>
-    <t>ח</t>
+    <t>ז</t>
   </si>
   <si>
     <t>II</t>
@@ -74,481 +71,721 @@
     <t>III</t>
   </si>
   <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>VIII</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>נספח</t>
+  </si>
+  <si>
     <t>VI</t>
   </si>
   <si>
-    <t>IV</t>
+    <t>V</t>
+  </si>
+  <si>
+    <t>IX</t>
   </si>
   <si>
     <t>VII</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>נספח</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>VIII</t>
-  </si>
-  <si>
-    <t>IX</t>
+    <t>כלל יד</t>
+  </si>
+  <si>
+    <t>כלל ט</t>
+  </si>
+  <si>
+    <t>כלל א</t>
+  </si>
+  <si>
+    <t>כלל טו</t>
+  </si>
+  <si>
+    <t>כלל יז</t>
+  </si>
+  <si>
+    <t>כלל ד</t>
   </si>
   <si>
     <t>כלל ה</t>
   </si>
   <si>
-    <t>כלל א</t>
+    <t>כלל ח</t>
+  </si>
+  <si>
+    <t>כלל ז</t>
   </si>
   <si>
     <t>כלל ג</t>
   </si>
   <si>
-    <t>כלל ד</t>
+    <t>כלל יא</t>
+  </si>
+  <si>
+    <t>כלל ו</t>
   </si>
   <si>
     <t>כלל ב</t>
   </si>
   <si>
+    <t>כלל יג</t>
+  </si>
+  <si>
+    <t>כלל י</t>
+  </si>
+  <si>
+    <t>כלל יב</t>
+  </si>
+  <si>
+    <t>כלל טז</t>
+  </si>
+  <si>
     <t>גמרא</t>
   </si>
   <si>
+    <t>תוספות ר"ש</t>
+  </si>
+  <si>
+    <t>המאור הקטן</t>
+  </si>
+  <si>
+    <t>מלחמת ה'</t>
+  </si>
+  <si>
+    <t>ריטב"א</t>
+  </si>
+  <si>
+    <t>תוספות</t>
+  </si>
+  <si>
+    <t>רשב"א</t>
+  </si>
+  <si>
+    <t>רמב"ן</t>
+  </si>
+  <si>
     <t>רש"י</t>
   </si>
   <si>
-    <t>תוספות</t>
-  </si>
-  <si>
-    <t>מתני׳ בבלי</t>
-  </si>
-  <si>
-    <t>מתני׳</t>
-  </si>
-  <si>
-    <t>המאור הקטן</t>
-  </si>
-  <si>
-    <t>מתני/</t>
-  </si>
-  <si>
-    <t>מלחמת ה'</t>
-  </si>
-  <si>
-    <t>ר"ן</t>
-  </si>
-  <si>
-    <t>רשב"א</t>
-  </si>
-  <si>
-    <t>ריטב"א</t>
-  </si>
-  <si>
-    <t>מתני'</t>
-  </si>
-  <si>
-    <t>גרי"ז</t>
+    <t>תוס׳ ר"ש</t>
+  </si>
+  <si>
+    <t>הר"ן על הרי"ף</t>
+  </si>
+  <si>
+    <t>הר"ן</t>
+  </si>
+  <si>
+    <t>ויש לעיין ב</t>
+  </si>
+  <si>
+    <t>פסקי רי"ד</t>
+  </si>
+  <si>
+    <t>ק</t>
+  </si>
+  <si>
+    <t>תוספות רי"ד</t>
+  </si>
+  <si>
+    <t>תוספות הרא"ש</t>
+  </si>
+  <si>
+    <t>כי לגבי תרומה, ב</t>
+  </si>
+  <si>
+    <t>מאירי</t>
+  </si>
+  <si>
+    <t>שיטה לא נודע למי</t>
+  </si>
+  <si>
+    <t>פירוש רש"י</t>
+  </si>
+  <si>
+    <t>ר"י הזקן</t>
+  </si>
+  <si>
+    <t>תוס׳ ר"י הזקן</t>
+  </si>
+  <si>
+    <t>שיטה מקובצת</t>
+  </si>
+  <si>
+    <t>רי"ף</t>
+  </si>
+  <si>
+    <t>המאור הגדול</t>
+  </si>
+  <si>
+    <t>לא.</t>
+  </si>
+  <si>
+    <t>לב:</t>
+  </si>
+  <si>
+    <t>ט:</t>
+  </si>
+  <si>
+    <t>טו.</t>
+  </si>
+  <si>
+    <t>לא:</t>
+  </si>
+  <si>
+    <t>נא.</t>
+  </si>
+  <si>
+    <t>נב:</t>
+  </si>
+  <si>
+    <t>קי.</t>
+  </si>
+  <si>
+    <t>ז:</t>
+  </si>
+  <si>
+    <t>מו:</t>
+  </si>
+  <si>
+    <t>מז:</t>
+  </si>
+  <si>
+    <t>מח.</t>
+  </si>
+  <si>
+    <t>מח:</t>
+  </si>
+  <si>
+    <t>עד.</t>
+  </si>
+  <si>
+    <t>א.</t>
+  </si>
+  <si>
+    <t>ב.</t>
+  </si>
+  <si>
+    <t>ג.</t>
+  </si>
+  <si>
+    <t>ה:</t>
+  </si>
+  <si>
+    <t>ו.</t>
+  </si>
+  <si>
+    <t>ו:</t>
+  </si>
+  <si>
+    <t>ל.</t>
+  </si>
+  <si>
+    <t>עג:</t>
+  </si>
+  <si>
+    <t>יא:</t>
+  </si>
+  <si>
+    <t>יב:</t>
+  </si>
+  <si>
+    <t>יג:</t>
+  </si>
+  <si>
+    <t>כ.</t>
+  </si>
+  <si>
+    <t>כ:</t>
+  </si>
+  <si>
+    <t>לג.</t>
+  </si>
+  <si>
+    <t>לז.</t>
+  </si>
+  <si>
+    <t>מג.</t>
+  </si>
+  <si>
+    <t>סה.</t>
+  </si>
+  <si>
+    <t>עח.</t>
+  </si>
+  <si>
+    <t>עח:</t>
+  </si>
+  <si>
+    <t>פב.</t>
+  </si>
+  <si>
+    <t>פב:</t>
+  </si>
+  <si>
+    <t>פה.</t>
+  </si>
+  <si>
+    <t>ב:</t>
+  </si>
+  <si>
+    <t>ג:</t>
+  </si>
+  <si>
+    <t>ד.</t>
+  </si>
+  <si>
+    <t>ד:</t>
+  </si>
+  <si>
+    <t>ה.</t>
+  </si>
+  <si>
+    <t>ז.</t>
+  </si>
+  <si>
+    <t>ח.</t>
+  </si>
+  <si>
+    <t>ח:</t>
+  </si>
+  <si>
+    <t>ט.</t>
+  </si>
+  <si>
+    <t>י.</t>
+  </si>
+  <si>
+    <t>י:</t>
+  </si>
+  <si>
+    <t>יא.</t>
+  </si>
+  <si>
+    <t>יב.</t>
+  </si>
+  <si>
+    <t>יג.</t>
+  </si>
+  <si>
+    <t>כא:</t>
+  </si>
+  <si>
+    <t>כב:</t>
+  </si>
+  <si>
+    <t>כג.</t>
+  </si>
+  <si>
+    <t>כו.</t>
+  </si>
+  <si>
+    <t>מג:</t>
+  </si>
+  <si>
+    <t>מד.</t>
+  </si>
+  <si>
+    <t>מז.</t>
+  </si>
+  <si>
+    <t>נא:</t>
+  </si>
+  <si>
+    <t>נב.</t>
+  </si>
+  <si>
+    <t>נח:</t>
+  </si>
+  <si>
+    <t>נט:</t>
+  </si>
+  <si>
+    <t>ס.</t>
+  </si>
+  <si>
+    <t>סג.</t>
+  </si>
+  <si>
+    <t>מט:</t>
+  </si>
+  <si>
+    <t>פז.</t>
+  </si>
+  <si>
+    <t>קב:</t>
+  </si>
+  <si>
+    <t>יח.</t>
+  </si>
+  <si>
+    <t>נה.</t>
+  </si>
+  <si>
+    <t>נו:</t>
+  </si>
+  <si>
+    <t>עא:</t>
+  </si>
+  <si>
+    <t>מ.</t>
+  </si>
+  <si>
+    <t>קו:</t>
+  </si>
+  <si>
+    <t>קעג:</t>
+  </si>
+  <si>
+    <t>קעה:</t>
+  </si>
+  <si>
+    <t>לט:</t>
+  </si>
+  <si>
+    <t>מ:</t>
+  </si>
+  <si>
+    <t>קלט.</t>
+  </si>
+  <si>
+    <t>יח:</t>
+  </si>
+  <si>
+    <t>פסחים</t>
+  </si>
+  <si>
+    <t>יבמות</t>
+  </si>
+  <si>
+    <t>כתובות</t>
+  </si>
+  <si>
+    <t>נדרים</t>
+  </si>
+  <si>
+    <t>גיטין</t>
+  </si>
+  <si>
+    <t>קידושין</t>
+  </si>
+  <si>
+    <t>בבא קמא</t>
+  </si>
+  <si>
+    <t>בבא מציעא</t>
+  </si>
+  <si>
+    <t>בבא בתרא</t>
+  </si>
+  <si>
+    <t>שבועות</t>
+  </si>
+  <si>
+    <t>מנחות</t>
+  </si>
+  <si>
+    <t>חולין</t>
+  </si>
+  <si>
+    <t>בכורות</t>
+  </si>
+  <si>
+    <t>מעילה</t>
+  </si>
+  <si>
+    <t>רמב"ם</t>
+  </si>
+  <si>
+    <t>השגות הראב"ד</t>
+  </si>
+  <si>
+    <t>מגיד משנה</t>
+  </si>
+  <si>
+    <t>כסף משנה</t>
+  </si>
+  <si>
+    <t>משנה למלך</t>
+  </si>
+  <si>
+    <t>אור שמח</t>
   </si>
   <si>
     <t>משנה</t>
   </si>
   <si>
-    <t>קרן אורה</t>
-  </si>
-  <si>
-    <t>שטמ"ק</t>
-  </si>
-  <si>
-    <t>עד.</t>
-  </si>
-  <si>
-    <t>פג.</t>
-  </si>
-  <si>
-    <t>פג:</t>
-  </si>
-  <si>
-    <t>כז:</t>
-  </si>
-  <si>
-    <t>לג.</t>
-  </si>
-  <si>
-    <t>לד:</t>
-  </si>
-  <si>
-    <t>מה.</t>
-  </si>
-  <si>
-    <t>מו.</t>
-  </si>
-  <si>
-    <t>מו:</t>
-  </si>
-  <si>
-    <t>מח.</t>
-  </si>
-  <si>
-    <t>א.</t>
-  </si>
-  <si>
-    <t>מח:</t>
-  </si>
-  <si>
-    <t>נ.</t>
-  </si>
-  <si>
-    <t>יד:</t>
-  </si>
-  <si>
-    <t>טו.</t>
-  </si>
-  <si>
-    <t>כג:</t>
-  </si>
-  <si>
-    <t>פט:</t>
-  </si>
-  <si>
-    <t>כד:</t>
-  </si>
-  <si>
-    <t>צז:</t>
-  </si>
-  <si>
-    <t>ד.</t>
-  </si>
-  <si>
-    <t>ה:</t>
-  </si>
-  <si>
-    <t>מז.</t>
-  </si>
-  <si>
-    <t>יד.</t>
-  </si>
-  <si>
-    <t>כה.</t>
-  </si>
-  <si>
-    <t>לה.</t>
-  </si>
-  <si>
-    <t>לה:</t>
-  </si>
-  <si>
-    <t>לו.</t>
-  </si>
-  <si>
-    <t>מג.</t>
-  </si>
-  <si>
-    <t>סח:</t>
-  </si>
-  <si>
-    <t>עז.</t>
-  </si>
-  <si>
-    <t>עז:</t>
-  </si>
-  <si>
-    <t>פב.</t>
-  </si>
-  <si>
-    <t>פד.</t>
-  </si>
-  <si>
-    <t>פד:</t>
-  </si>
-  <si>
-    <t>פה.</t>
-  </si>
-  <si>
-    <t>פה:</t>
-  </si>
-  <si>
-    <t>פו.</t>
-  </si>
-  <si>
-    <t>פו:</t>
-  </si>
-  <si>
-    <t>פז.</t>
-  </si>
-  <si>
-    <t>פז:</t>
-  </si>
-  <si>
-    <t>פח.</t>
-  </si>
-  <si>
-    <t>קז:</t>
-  </si>
-  <si>
-    <t>קח.</t>
-  </si>
-  <si>
-    <t>קח:</t>
-  </si>
-  <si>
-    <t>קט.</t>
-  </si>
-  <si>
-    <t>קט:</t>
-  </si>
-  <si>
-    <t>כו:</t>
-  </si>
-  <si>
-    <t>סג:</t>
-  </si>
-  <si>
-    <t>סד.</t>
-  </si>
-  <si>
-    <t>עח:</t>
-  </si>
-  <si>
-    <t>כג.</t>
-  </si>
-  <si>
-    <t>צ:</t>
-  </si>
-  <si>
-    <t>טז.</t>
-  </si>
-  <si>
-    <t>לט.</t>
-  </si>
-  <si>
-    <t>יז.</t>
-  </si>
-  <si>
-    <t>ב.</t>
-  </si>
-  <si>
-    <t>ב:</t>
-  </si>
-  <si>
-    <t>ז:</t>
-  </si>
-  <si>
-    <t>י.</t>
-  </si>
-  <si>
-    <t>י:</t>
-  </si>
-  <si>
-    <t>יב.</t>
-  </si>
-  <si>
-    <t>פסחים</t>
-  </si>
-  <si>
-    <t>יומא</t>
-  </si>
-  <si>
-    <t>סוכה</t>
-  </si>
-  <si>
-    <t>חגיגה</t>
-  </si>
-  <si>
-    <t>יבמות</t>
-  </si>
-  <si>
-    <t>סוטה</t>
-  </si>
-  <si>
-    <t>קידושין</t>
-  </si>
-  <si>
-    <t>בבא בתרא</t>
-  </si>
-  <si>
-    <t>סנהדרין</t>
-  </si>
-  <si>
-    <t>שבועות</t>
-  </si>
-  <si>
-    <t>עבודה זרה</t>
-  </si>
-  <si>
-    <t>זבחים</t>
-  </si>
-  <si>
-    <t>מנחות</t>
-  </si>
-  <si>
-    <t>חולין</t>
-  </si>
-  <si>
-    <t>בכורות</t>
-  </si>
-  <si>
-    <t>תמורה</t>
-  </si>
-  <si>
-    <t>מעילה</t>
-  </si>
-  <si>
-    <t>ז</t>
-  </si>
-  <si>
-    <t>צפנת פענח הלכות</t>
-  </si>
-  <si>
-    <t>רמב"ם</t>
-  </si>
-  <si>
-    <t>השגות הראב"ד</t>
-  </si>
-  <si>
-    <t>כסף משנה</t>
-  </si>
-  <si>
-    <t>רמב"ם הלכות</t>
-  </si>
-  <si>
-    <t>יב:א</t>
-  </si>
-  <si>
-    <t>א:א</t>
-  </si>
-  <si>
-    <t>א:ג</t>
-  </si>
-  <si>
-    <t>ב:ח</t>
-  </si>
-  <si>
-    <t>ב:י</t>
+    <t>ר"ש</t>
+  </si>
+  <si>
+    <t>משנה ראשונה</t>
+  </si>
+  <si>
+    <t>שנות אליהו</t>
+  </si>
+  <si>
+    <t>אבן האזל</t>
+  </si>
+  <si>
+    <t>ג:י</t>
+  </si>
+  <si>
+    <t>ד:ח</t>
+  </si>
+  <si>
+    <t>ד:טז</t>
+  </si>
+  <si>
+    <t>ד:יט</t>
+  </si>
+  <si>
+    <t>ד:כ</t>
+  </si>
+  <si>
+    <t>ד:כא</t>
+  </si>
+  <si>
+    <t>ד:כב</t>
+  </si>
+  <si>
+    <t>ה:טו</t>
+  </si>
+  <si>
+    <t>ה:כד</t>
+  </si>
+  <si>
+    <t>ז:יב</t>
+  </si>
+  <si>
+    <t>ז:טז</t>
+  </si>
+  <si>
+    <t>ז:יח</t>
+  </si>
+  <si>
+    <t>י:ב</t>
   </si>
   <si>
     <t>ג:א</t>
   </si>
   <si>
-    <t>ג:י</t>
-  </si>
-  <si>
-    <t>ג:יא</t>
-  </si>
-  <si>
-    <t>ג:ב</t>
-  </si>
-  <si>
-    <t>ג:ג</t>
-  </si>
-  <si>
-    <t>יח:ג</t>
-  </si>
-  <si>
-    <t>יח:ד</t>
-  </si>
-  <si>
-    <t>יח:ו</t>
-  </si>
-  <si>
-    <t>ב:א</t>
-  </si>
-  <si>
-    <t>י:יא</t>
-  </si>
-  <si>
-    <t>שבת</t>
-  </si>
-  <si>
-    <t>איסורי מזבח</t>
-  </si>
-  <si>
-    <t>פסולי המוקדשין</t>
-  </si>
-  <si>
-    <t>קרבן פסח</t>
-  </si>
-  <si>
-    <t>ברכי יוסף</t>
-  </si>
-  <si>
-    <t>מנ"ח רפ"ה, סעיף</t>
-  </si>
-  <si>
-    <t>שו"ת אחיעזר</t>
-  </si>
-  <si>
-    <t>שו"ת זרע אברהם</t>
-  </si>
-  <si>
-    <t>שו"ת שאגת אריה (ישנות)</t>
-  </si>
-  <si>
-    <t>חלק ב סימן כו</t>
-  </si>
-  <si>
-    <t>סימן כג</t>
-  </si>
-  <si>
-    <t>סימן כג ס"ק כו</t>
-  </si>
-  <si>
-    <t>סימן נ:</t>
+    <t>יא</t>
+  </si>
+  <si>
+    <t>א:ח</t>
+  </si>
+  <si>
+    <t>א:ט</t>
+  </si>
+  <si>
+    <t>ב:יג</t>
+  </si>
+  <si>
+    <t>א:ד</t>
+  </si>
+  <si>
+    <t>א:ו</t>
+  </si>
+  <si>
+    <t>ה:ז</t>
+  </si>
+  <si>
+    <t>ז:ד</t>
+  </si>
+  <si>
+    <t>יא:טו</t>
+  </si>
+  <si>
+    <t>כט</t>
+  </si>
+  <si>
+    <t>כט:ח-ט</t>
+  </si>
+  <si>
+    <t>ה:ג</t>
+  </si>
+  <si>
+    <t>ג:ד</t>
+  </si>
+  <si>
+    <t>אישות</t>
+  </si>
+  <si>
+    <t>גירושין</t>
+  </si>
+  <si>
+    <t>נערה בתולה</t>
+  </si>
+  <si>
+    <t>תרומות</t>
+  </si>
+  <si>
+    <t>מעשר שני</t>
+  </si>
+  <si>
+    <t>מע״ש</t>
+  </si>
+  <si>
+    <t>מכירה</t>
+  </si>
+  <si>
+    <t>עבדים</t>
+  </si>
+  <si>
+    <t>עדות</t>
+  </si>
+  <si>
+    <t>גם התור</t>
+  </si>
+  <si>
+    <t>הנה ראה דברי הר</t>
+  </si>
+  <si>
+    <t>ובאיגרות הגר</t>
+  </si>
+  <si>
+    <t>וגם בתור</t>
+  </si>
+  <si>
+    <t>והתוס׳ ר</t>
+  </si>
+  <si>
+    <t>וכתב הר</t>
+  </si>
+  <si>
+    <t>ט"ז</t>
+  </si>
+  <si>
+    <t>כבר הזכרנו שיטת התור</t>
+  </si>
+  <si>
+    <t>כתב התור</t>
+  </si>
+  <si>
+    <t>ש"ך</t>
+  </si>
+  <si>
+    <t>ש"ע</t>
+  </si>
+  <si>
+    <t>שולחן ערוך אבן העזר הלכות</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>שו"ת אבני מילואים</t>
+  </si>
+  <si>
+    <t>שו"ת דבר אברהם</t>
+  </si>
+  <si>
+    <t>שו"ת הר"ן</t>
+  </si>
+  <si>
+    <t>שו"ת הרשב"א</t>
+  </si>
+  <si>
+    <t>סימן יז</t>
+  </si>
+  <si>
+    <t>חלק א סימן א סעיף ג</t>
+  </si>
+  <si>
+    <t>סימן כז</t>
+  </si>
+  <si>
+    <t>חלק א סימן תרג</t>
+  </si>
+  <si>
+    <t>אבני מילואים</t>
+  </si>
+  <si>
+    <t>מנ"ח</t>
   </si>
   <si>
     <t>מנחת חינוך</t>
   </si>
   <si>
-    <t>מקדש דוד</t>
+    <t>נתיבות</t>
+  </si>
+  <si>
+    <t>נתיבות המשפט</t>
+  </si>
+  <si>
+    <t>ס</t>
+  </si>
+  <si>
+    <t>ספר הישר</t>
+  </si>
+  <si>
+    <t>עיטור</t>
+  </si>
+  <si>
+    <t>קצות החושן</t>
+  </si>
+  <si>
+    <t>תורת כהנים</t>
   </si>
   <si>
     <t>תרומת הדשן</t>
   </si>
   <si>
-    <t>סעיף י״ד:</t>
-  </si>
-  <si>
-    <t>פרשת אמור מצוה רפה</t>
-  </si>
-  <si>
-    <t>סימן ה</t>
-  </si>
-  <si>
-    <t>שם בהמשך, כותב:</t>
-  </si>
-  <si>
-    <t>סו״ס ו:</t>
-  </si>
-  <si>
-    <t>סימן ד</t>
-  </si>
-  <si>
-    <t>מניח כרש״י [וכתב]:</t>
-  </si>
-  <si>
-    <t>סימן ו</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> חקר [בשתי נפקותות]:</t>
-  </si>
-  <si>
-    <t>מתלבט בדבר:</t>
-  </si>
-  <si>
-    <t>סימן ג</t>
-  </si>
-  <si>
-    <t>סימן ד ס״ק ג</t>
-  </si>
-  <si>
-    <t>סימן לד ס״ק ב</t>
-  </si>
-  <si>
-    <t>סימן ד ס״ק ה</t>
+    <t>סימן מד ס״ק ד</t>
+  </si>
+  <si>
+    <t>סימן מד ס"ק ג</t>
+  </si>
+  <si>
+    <t>קידמם בדבר, יראה דבריו:</t>
+  </si>
+  <si>
+    <t>סימן כח ס"ק טז</t>
+  </si>
+  <si>
+    <t>דן בזה:</t>
+  </si>
+  <si>
+    <t>פרשת קרח מצוה שצב</t>
+  </si>
+  <si>
+    <t>פרשת בהר מצוה שלו</t>
+  </si>
+  <si>
+    <t>סימן קצ ס״ק ב</t>
+  </si>
+  <si>
+    <t>סימן סו ס״ק י״ב</t>
+  </si>
+  <si>
+    <t>סימן רמג ס״ק ח</t>
+  </si>
+  <si>
+    <t>סימן קצ ס״ק א</t>
+  </si>
+  <si>
+    <t>(חלק החידושים) סימן קנג</t>
+  </si>
+  <si>
+    <t>(חלק החידושים) סימן קמב</t>
+  </si>
+  <si>
+    <t>אות ק</t>
+  </si>
+  <si>
+    <t>סימן רמג ס״ק ד</t>
+  </si>
+  <si>
+    <t>סימן קכג סעיף קטן ה סעיף קטן ה</t>
+  </si>
+  <si>
+    <t>סימן קב</t>
   </si>
 </sst>
 </file>
@@ -906,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G235"/>
+  <dimension ref="A1:G342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -940,35 +1177,59 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -976,7 +1237,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -987,27 +1248,39 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1015,62 +1288,80 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
-        <v>34</v>
+      <c r="F11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1078,27 +1369,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
-        <v>33</v>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1109,75 +1406,99 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="F18" t="s">
-        <v>55</v>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="E20" t="s">
-        <v>34</v>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="E23" t="s">
-        <v>34</v>
+      <c r="B23" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1185,41 +1506,47 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" t="s">
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1227,33 +1554,24 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="E28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" t="s">
-        <v>60</v>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1261,27 +1579,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="E30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" t="s">
-        <v>62</v>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1289,756 +1613,624 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" t="s">
-        <v>32</v>
-      </c>
       <c r="F32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s">
-        <v>29</v>
+      <c r="E37" t="s">
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="C38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
       <c r="E40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="E41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="E42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>28</v>
+      <c r="E49" t="s">
+        <v>42</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="F51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" t="s">
-        <v>27</v>
-      </c>
       <c r="E52" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="E56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="E57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>27</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="F58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
       </c>
-      <c r="D60" t="s">
-        <v>28</v>
-      </c>
-      <c r="F60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" t="s">
-        <v>28</v>
-      </c>
-      <c r="E62" t="s">
-        <v>34</v>
-      </c>
-      <c r="F62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" t="s">
-        <v>34</v>
-      </c>
-      <c r="F65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" t="s">
-        <v>33</v>
-      </c>
-      <c r="F66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
         <v>19</v>
       </c>
-      <c r="E69" t="s">
-        <v>32</v>
+      <c r="D69" t="s">
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" t="s">
-        <v>19</v>
-      </c>
       <c r="E72" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" t="s">
-        <v>25</v>
-      </c>
       <c r="E73" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="F73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" t="s">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="F77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="F80" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2046,10 +2238,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2057,7 +2252,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2065,7 +2263,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2073,16 +2274,31 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="D84" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
         <v>83</v>
       </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1">
@@ -2092,23 +2308,38 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1">
         <v>85</v>
       </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2116,10 +2347,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2127,10 +2355,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2138,35 +2363,20 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" t="s">
-        <v>24</v>
-      </c>
-      <c r="E93" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2174,13 +2384,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2188,66 +2395,117 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1">
         <v>94</v>
       </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>95</v>
       </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>96</v>
       </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
-      </c>
-      <c r="F99" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>98</v>
       </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" t="s">
+        <v>42</v>
+      </c>
+      <c r="F100" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>99</v>
       </c>
+      <c r="E101" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2258,7 +2516,10 @@
         <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="D103" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2266,10 +2527,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="D104" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104" t="s">
+        <v>42</v>
+      </c>
+      <c r="F104" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2279,19 +2549,28 @@
       <c r="B105" t="s">
         <v>7</v>
       </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="D106" t="s">
+        <v>34</v>
       </c>
       <c r="E106" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2301,15 +2580,6 @@
       <c r="B107" t="s">
         <v>7</v>
       </c>
-      <c r="C107" t="s">
-        <v>23</v>
-      </c>
-      <c r="D107" t="s">
-        <v>30</v>
-      </c>
-      <c r="E107" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
@@ -2319,13 +2589,13 @@
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2333,16 +2603,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2350,19 +2620,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E110" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F110" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2370,57 +2640,54 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
-      </c>
-      <c r="E111" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>110</v>
       </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>31</v>
-      </c>
-      <c r="E113" t="s">
-        <v>32</v>
-      </c>
-      <c r="F113" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>112</v>
       </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2430,48 +2697,18 @@
       <c r="B116" t="s">
         <v>7</v>
       </c>
-      <c r="C116" t="s">
-        <v>16</v>
-      </c>
-      <c r="D116" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" t="s">
-        <v>29</v>
-      </c>
-      <c r="E117" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" t="s">
-        <v>31</v>
-      </c>
-      <c r="E118" t="s">
-        <v>32</v>
-      </c>
-      <c r="F118" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2479,7 +2716,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2487,7 +2730,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2495,10 +2738,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D121" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2509,10 +2755,10 @@
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2520,13 +2766,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
       </c>
       <c r="D123" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="E123" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2534,13 +2783,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="E124" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2550,8 +2799,8 @@
       <c r="B125" t="s">
         <v>6</v>
       </c>
-      <c r="C125" t="s">
-        <v>22</v>
+      <c r="E125" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2559,24 +2808,24 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="E126" t="s">
+        <v>42</v>
+      </c>
+      <c r="F126" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" t="s">
-        <v>23</v>
-      </c>
-      <c r="D127" t="s">
-        <v>30</v>
+      <c r="E127" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2584,13 +2833,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="E128" t="s">
+        <v>42</v>
+      </c>
+      <c r="F128" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2598,16 +2853,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>30</v>
-      </c>
-      <c r="E129" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2615,13 +2867,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E130" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2629,16 +2881,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E131" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2646,16 +2898,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>19</v>
       </c>
       <c r="D132" t="s">
-        <v>30</v>
-      </c>
-      <c r="E132" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -2663,19 +2912,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F133" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -2683,37 +2932,46 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="E137" t="s">
-        <v>33</v>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -2721,13 +2979,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>20</v>
-      </c>
-      <c r="E138" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -2735,31 +2993,61 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>138</v>
       </c>
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>36</v>
+      </c>
+      <c r="E140" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>139</v>
       </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" t="s">
+        <v>38</v>
+      </c>
+      <c r="E141" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
-      </c>
-      <c r="E142" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -2770,10 +3058,16 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E143" t="s">
+        <v>59</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -2781,183 +3075,216 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D144" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E144" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F144" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:5">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="s">
-        <v>12</v>
-      </c>
-      <c r="C146" t="s">
-        <v>20</v>
-      </c>
-      <c r="E146" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>22</v>
-      </c>
-      <c r="E147" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>6</v>
+      </c>
+      <c r="C149" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="1">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="B152" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" t="s">
+        <v>24</v>
+      </c>
+      <c r="D152" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>28</v>
-      </c>
-      <c r="E153" t="s">
-        <v>32</v>
-      </c>
-      <c r="F153" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
-      </c>
-      <c r="D154" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="E154" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" t="s">
-        <v>19</v>
-      </c>
-      <c r="D155" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="E155" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="D156" t="s">
+        <v>39</v>
+      </c>
+      <c r="E156" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="D157" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="1">
         <v>157</v>
       </c>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E160" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -2965,13 +3292,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>22</v>
-      </c>
-      <c r="D161" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="E161" t="s">
+        <v>42</v>
+      </c>
+      <c r="F161" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -2979,13 +3309,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -2996,10 +3323,7 @@
         <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>23</v>
-      </c>
-      <c r="D163" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3007,49 +3331,52 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>18</v>
-      </c>
-      <c r="D164" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="E164" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
         <v>163</v>
       </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+      <c r="E165" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="s">
-        <v>6</v>
-      </c>
-      <c r="C166" t="s">
-        <v>20</v>
-      </c>
-      <c r="D166" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E167" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="F167" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3059,22 +3386,25 @@
       <c r="B168" t="s">
         <v>8</v>
       </c>
-      <c r="E168" t="s">
-        <v>33</v>
-      </c>
-      <c r="F168" t="s">
-        <v>87</v>
+      <c r="C168" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="E169" t="s">
-        <v>32</v>
-      </c>
-      <c r="F169" t="s">
-        <v>88</v>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3082,29 +3412,38 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D170" t="s">
-        <v>27</v>
-      </c>
-      <c r="F170" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
         <v>169</v>
       </c>
+      <c r="B171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" t="s">
+        <v>16</v>
+      </c>
+      <c r="E171" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="E172" t="s">
-        <v>33</v>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3112,30 +3451,21 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E173" t="s">
-        <v>32</v>
-      </c>
-      <c r="F173" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="s">
-        <v>12</v>
-      </c>
-      <c r="C174" t="s">
-        <v>16</v>
-      </c>
       <c r="E174" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3143,211 +3473,268 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C175" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" t="s">
+        <v>39</v>
       </c>
       <c r="E175" t="s">
-        <v>32</v>
-      </c>
-      <c r="F175" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="s">
-        <v>12</v>
-      </c>
-      <c r="C176" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="E176" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="1">
         <v>175</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="D178" t="s">
+        <v>39</v>
       </c>
       <c r="E178" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="F178" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="1">
         <v>177</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>22</v>
-      </c>
-      <c r="E180" t="s">
-        <v>32</v>
-      </c>
-      <c r="F180" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="D180" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="C181" t="s">
+        <v>22</v>
+      </c>
+      <c r="D181" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>24</v>
+      </c>
+      <c r="D182" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="D183" t="s">
+        <v>27</v>
+      </c>
+      <c r="E183" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C184" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="D184" t="s">
+        <v>39</v>
       </c>
       <c r="E184" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" s="1">
         <v>183</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D186" t="s">
+        <v>27</v>
       </c>
       <c r="E186" t="s">
-        <v>32</v>
-      </c>
-      <c r="F186" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>19</v>
+      </c>
+      <c r="D187" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C188" t="s">
+        <v>24</v>
+      </c>
+      <c r="D188" t="s">
+        <v>39</v>
       </c>
       <c r="E188" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="1">
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:6">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C190" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D190" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E190" t="s">
-        <v>32</v>
-      </c>
-      <c r="F190" t="s">
-        <v>71</v>
-      </c>
-      <c r="G190" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="D191" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="193" spans="1:7">
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
-        <v>20</v>
-      </c>
-      <c r="D193" t="s">
-        <v>27</v>
-      </c>
-      <c r="F193" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3355,81 +3742,108 @@
         <v>6</v>
       </c>
       <c r="C194" t="s">
-        <v>16</v>
-      </c>
-      <c r="D194" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="1">
         <v>193</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
+      <c r="E195" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D196" t="s">
-        <v>29</v>
-      </c>
-      <c r="F196" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
+      <c r="B197" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="1">
         <v>196</v>
       </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" t="s">
+        <v>38</v>
+      </c>
       <c r="E198" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="F198" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
-        <v>22</v>
-      </c>
-      <c r="E199" t="s">
-        <v>32</v>
-      </c>
-      <c r="F199" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="D199" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="E200" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="E201" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>19</v>
+      </c>
+      <c r="D201" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -3437,44 +3851,41 @@
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>21</v>
-      </c>
-      <c r="D202" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E202" t="s">
-        <v>32</v>
-      </c>
-      <c r="F202" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="1">
         <v>201</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C204" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D204" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E204" t="s">
-        <v>36</v>
-      </c>
-      <c r="F204" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -3482,26 +3893,47 @@
         <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="E205" t="s">
+        <v>42</v>
+      </c>
+      <c r="F205" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="E206" t="s">
-        <v>32</v>
-      </c>
-      <c r="F206" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+      <c r="B206" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" t="s">
+        <v>19</v>
+      </c>
+      <c r="D206" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" s="1">
         <v>205</v>
       </c>
-    </row>
-    <row r="208" spans="1:7">
+      <c r="B207" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" t="s">
+        <v>39</v>
+      </c>
+      <c r="F207" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -3512,222 +3944,189 @@
         <v>19</v>
       </c>
       <c r="D208" t="s">
-        <v>30</v>
-      </c>
-      <c r="F208" t="s">
-        <v>98</v>
-      </c>
-      <c r="G208" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" t="s">
         <v>8</v>
       </c>
-      <c r="C209" t="s">
-        <v>23</v>
-      </c>
-      <c r="D209" t="s">
-        <v>29</v>
-      </c>
-      <c r="F209" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C210" t="s">
+        <v>19</v>
+      </c>
+      <c r="D210" t="s">
+        <v>25</v>
       </c>
       <c r="E210" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" t="s">
-        <v>23</v>
-      </c>
-      <c r="D211" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>32</v>
-      </c>
-      <c r="F211" t="s">
-        <v>70</v>
-      </c>
-      <c r="G211" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="E212" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="E213" t="s">
-        <v>32</v>
-      </c>
-      <c r="F213" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+      <c r="B213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" s="1">
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:5">
       <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="E215" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="B215" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>19</v>
-      </c>
-      <c r="E216" t="s">
-        <v>32</v>
-      </c>
-      <c r="F216" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="C217" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>16</v>
-      </c>
-      <c r="E218" t="s">
-        <v>47</v>
-      </c>
-      <c r="F218" t="s">
-        <v>102</v>
-      </c>
-      <c r="G218" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="D218" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D219" t="s">
-        <v>31</v>
-      </c>
-      <c r="E219" t="s">
-        <v>35</v>
-      </c>
-      <c r="F219" t="s">
-        <v>103</v>
-      </c>
-      <c r="G219" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" s="1">
         <v>218</v>
       </c>
+      <c r="B220" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" t="s">
+        <v>17</v>
+      </c>
       <c r="E220" t="s">
-        <v>32</v>
-      </c>
-      <c r="F220" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>19</v>
-      </c>
-      <c r="E221" t="s">
-        <v>36</v>
-      </c>
-      <c r="F221" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
-      </c>
-      <c r="E222" t="s">
-        <v>32</v>
-      </c>
-      <c r="F222" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="C222" t="s">
+        <v>15</v>
+      </c>
+      <c r="D222" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="C223" t="s">
+        <v>19</v>
+      </c>
+      <c r="D223" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="C224" t="s">
+        <v>19</v>
+      </c>
+      <c r="D224" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -3735,13 +4134,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C225" t="s">
+        <v>15</v>
       </c>
       <c r="E225" t="s">
-        <v>34</v>
-      </c>
-      <c r="F225" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -3749,13 +4148,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>14</v>
-      </c>
-      <c r="E226" t="s">
-        <v>46</v>
-      </c>
-      <c r="F226" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="C226" t="s">
+        <v>19</v>
+      </c>
+      <c r="D226" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -3763,13 +4162,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
-      </c>
-      <c r="E227" t="s">
-        <v>34</v>
-      </c>
-      <c r="F227" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -3777,13 +4170,16 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D228" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="E228" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -3791,13 +4187,16 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D229" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="E229" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -3808,29 +4207,44 @@
         <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D230" t="s">
-        <v>30</v>
-      </c>
-      <c r="E230" t="s">
-        <v>32</v>
-      </c>
-      <c r="F230" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1">
         <v>229</v>
       </c>
+      <c r="B231" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" t="s">
+        <v>17</v>
+      </c>
+      <c r="D231" t="s">
+        <v>40</v>
+      </c>
+      <c r="E231" t="s">
+        <v>42</v>
+      </c>
+      <c r="F231" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="E232" t="s">
-        <v>34</v>
+      <c r="B232" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" t="s">
+        <v>19</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -3838,29 +4252,1545 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
-        <v>23</v>
-      </c>
-      <c r="D233" t="s">
-        <v>31</v>
-      </c>
-      <c r="E233" t="s">
-        <v>32</v>
-      </c>
-      <c r="F233" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1">
         <v>232</v>
       </c>
+      <c r="B234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" t="s">
+        <v>15</v>
+      </c>
+      <c r="D234" t="s">
+        <v>38</v>
+      </c>
+      <c r="E234" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1">
         <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" t="s">
+        <v>19</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="E237" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="E238" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" t="s">
+        <v>17</v>
+      </c>
+      <c r="E239" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" t="s">
+        <v>19</v>
+      </c>
+      <c r="D240" t="s">
+        <v>27</v>
+      </c>
+      <c r="E240" t="s">
+        <v>42</v>
+      </c>
+      <c r="F240" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>9</v>
+      </c>
+      <c r="C241" t="s">
+        <v>16</v>
+      </c>
+      <c r="D241" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" t="s">
+        <v>17</v>
+      </c>
+      <c r="D242" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" t="s">
+        <v>19</v>
+      </c>
+      <c r="D243" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>6</v>
+      </c>
+      <c r="C244" t="s">
+        <v>17</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>6</v>
+      </c>
+      <c r="C245" t="s">
+        <v>19</v>
+      </c>
+      <c r="D245" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>6</v>
+      </c>
+      <c r="C246" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>6</v>
+      </c>
+      <c r="C248" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>10</v>
+      </c>
+      <c r="C250" t="s">
+        <v>17</v>
+      </c>
+      <c r="D250" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>6</v>
+      </c>
+      <c r="C251" t="s">
+        <v>19</v>
+      </c>
+      <c r="D251" t="s">
+        <v>41</v>
+      </c>
+      <c r="E251" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" t="s">
+        <v>15</v>
+      </c>
+      <c r="E252" t="s">
+        <v>42</v>
+      </c>
+      <c r="F252" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" t="s">
+        <v>15</v>
+      </c>
+      <c r="E254" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" t="s">
+        <v>19</v>
+      </c>
+      <c r="E257" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" t="s">
+        <v>19</v>
+      </c>
+      <c r="D260" t="s">
+        <v>29</v>
+      </c>
+      <c r="E260" t="s">
+        <v>42</v>
+      </c>
+      <c r="F260" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261" t="s">
+        <v>17</v>
+      </c>
+      <c r="D261" t="s">
+        <v>37</v>
+      </c>
+      <c r="F261" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263" t="s">
+        <v>21</v>
+      </c>
+      <c r="F263" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265" t="s">
+        <v>21</v>
+      </c>
+      <c r="E265" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="E266" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>8</v>
+      </c>
+      <c r="C267" t="s">
+        <v>17</v>
+      </c>
+      <c r="D267" t="s">
+        <v>40</v>
+      </c>
+      <c r="E267" t="s">
+        <v>42</v>
+      </c>
+      <c r="F267" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" t="s">
+        <v>21</v>
+      </c>
+      <c r="D268" t="s">
+        <v>27</v>
+      </c>
+      <c r="F268" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>8</v>
+      </c>
+      <c r="C269" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>9</v>
+      </c>
+      <c r="C270" t="s">
+        <v>19</v>
+      </c>
+      <c r="D270" t="s">
+        <v>39</v>
+      </c>
+      <c r="E270" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>9</v>
+      </c>
+      <c r="C271" t="s">
+        <v>24</v>
+      </c>
+      <c r="D271" t="s">
+        <v>37</v>
+      </c>
+      <c r="E271" t="s">
+        <v>57</v>
+      </c>
+      <c r="F271" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>9</v>
+      </c>
+      <c r="C272" t="s">
+        <v>17</v>
+      </c>
+      <c r="D272" t="s">
+        <v>39</v>
+      </c>
+      <c r="E272" t="s">
+        <v>42</v>
+      </c>
+      <c r="F272" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="F273" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" t="s">
+        <v>15</v>
+      </c>
+      <c r="D274" t="s">
+        <v>37</v>
+      </c>
+      <c r="F274" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>9</v>
+      </c>
+      <c r="C275" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>10</v>
+      </c>
+      <c r="C276" t="s">
+        <v>19</v>
+      </c>
+      <c r="D276" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>6</v>
+      </c>
+      <c r="C277" t="s">
+        <v>15</v>
+      </c>
+      <c r="D277" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278" t="s">
+        <v>16</v>
+      </c>
+      <c r="E278" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>9</v>
+      </c>
+      <c r="C279" t="s">
+        <v>15</v>
+      </c>
+      <c r="D279" t="s">
+        <v>30</v>
+      </c>
+      <c r="E279" t="s">
+        <v>42</v>
+      </c>
+      <c r="F279" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280" t="s">
+        <v>21</v>
+      </c>
+      <c r="D280" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281" t="s">
+        <v>17</v>
+      </c>
+      <c r="D281" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="F282" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>6</v>
+      </c>
+      <c r="C283" t="s">
+        <v>19</v>
+      </c>
+      <c r="D283" t="s">
+        <v>32</v>
+      </c>
+      <c r="F283" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284" t="s">
+        <v>16</v>
+      </c>
+      <c r="D284" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="E285" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286" t="s">
+        <v>17</v>
+      </c>
+      <c r="D286" t="s">
+        <v>32</v>
+      </c>
+      <c r="E286" t="s">
+        <v>48</v>
+      </c>
+      <c r="F286" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>11</v>
+      </c>
+      <c r="C287" t="s">
+        <v>16</v>
+      </c>
+      <c r="D287" t="s">
+        <v>33</v>
+      </c>
+      <c r="F287" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="E288" t="s">
+        <v>47</v>
+      </c>
+      <c r="F288" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" t="s">
+        <v>16</v>
+      </c>
+      <c r="D289" t="s">
+        <v>26</v>
+      </c>
+      <c r="E289" t="s">
+        <v>57</v>
+      </c>
+      <c r="F289" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290" t="s">
+        <v>21</v>
+      </c>
+      <c r="D290" t="s">
+        <v>27</v>
+      </c>
+      <c r="E290" t="s">
+        <v>42</v>
+      </c>
+      <c r="F290" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="E291" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="E292" t="s">
+        <v>46</v>
+      </c>
+      <c r="F292" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>6</v>
+      </c>
+      <c r="C293" t="s">
+        <v>17</v>
+      </c>
+      <c r="D293" t="s">
+        <v>32</v>
+      </c>
+      <c r="E293" t="s">
+        <v>42</v>
+      </c>
+      <c r="F293" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>8</v>
+      </c>
+      <c r="C295" t="s">
+        <v>16</v>
+      </c>
+      <c r="D295" t="s">
+        <v>31</v>
+      </c>
+      <c r="E295" t="s">
+        <v>52</v>
+      </c>
+      <c r="F295" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>9</v>
+      </c>
+      <c r="C296" t="s">
+        <v>22</v>
+      </c>
+      <c r="D296" t="s">
+        <v>39</v>
+      </c>
+      <c r="F296" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>8</v>
+      </c>
+      <c r="C297" t="s">
+        <v>16</v>
+      </c>
+      <c r="D297" t="s">
+        <v>38</v>
+      </c>
+      <c r="F297" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298" t="s">
+        <v>21</v>
+      </c>
+      <c r="D298" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="F299" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>11</v>
+      </c>
+      <c r="C300" t="s">
+        <v>24</v>
+      </c>
+      <c r="E300" t="s">
+        <v>47</v>
+      </c>
+      <c r="F300" t="s">
+        <v>112</v>
+      </c>
+      <c r="G300" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>11</v>
+      </c>
+      <c r="C301" t="s">
+        <v>16</v>
+      </c>
+      <c r="D301" t="s">
+        <v>25</v>
+      </c>
+      <c r="E301" t="s">
+        <v>42</v>
+      </c>
+      <c r="F301" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="E302" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="E303" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>11</v>
+      </c>
+      <c r="C304" t="s">
+        <v>16</v>
+      </c>
+      <c r="D304" t="s">
+        <v>30</v>
+      </c>
+      <c r="E304" t="s">
+        <v>42</v>
+      </c>
+      <c r="F304" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="E306" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>7</v>
+      </c>
+      <c r="C307" t="s">
+        <v>17</v>
+      </c>
+      <c r="D307" t="s">
+        <v>34</v>
+      </c>
+      <c r="E307" t="s">
+        <v>48</v>
+      </c>
+      <c r="F307" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>8</v>
+      </c>
+      <c r="C308" t="s">
+        <v>15</v>
+      </c>
+      <c r="D308" t="s">
+        <v>32</v>
+      </c>
+      <c r="E308" t="s">
+        <v>66</v>
+      </c>
+      <c r="F308" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>8</v>
+      </c>
+      <c r="E309" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>8</v>
+      </c>
+      <c r="E310" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>13</v>
+      </c>
+      <c r="C311" t="s">
+        <v>15</v>
+      </c>
+      <c r="D311" t="s">
+        <v>26</v>
+      </c>
+      <c r="E311" t="s">
+        <v>42</v>
+      </c>
+      <c r="F311" t="s">
+        <v>115</v>
+      </c>
+      <c r="G311" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>6</v>
+      </c>
+      <c r="C312" t="s">
+        <v>15</v>
+      </c>
+      <c r="D312" t="s">
+        <v>34</v>
+      </c>
+      <c r="E312" t="s">
+        <v>50</v>
+      </c>
+      <c r="F312" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="E313" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>8</v>
+      </c>
+      <c r="C314" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>6</v>
+      </c>
+      <c r="C315" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>9</v>
+      </c>
+      <c r="C316" t="s">
+        <v>15</v>
+      </c>
+      <c r="D316" t="s">
+        <v>37</v>
+      </c>
+      <c r="F316" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>6</v>
+      </c>
+      <c r="C318" t="s">
+        <v>17</v>
+      </c>
+      <c r="F318" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>8</v>
+      </c>
+      <c r="C319" t="s">
+        <v>15</v>
+      </c>
+      <c r="D319" t="s">
+        <v>32</v>
+      </c>
+      <c r="F319" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>12</v>
+      </c>
+      <c r="C320" t="s">
+        <v>19</v>
+      </c>
+      <c r="D320" t="s">
+        <v>39</v>
+      </c>
+      <c r="E320" t="s">
+        <v>42</v>
+      </c>
+      <c r="F320" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>11</v>
+      </c>
+      <c r="C321" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>6</v>
+      </c>
+      <c r="C322" t="s">
+        <v>15</v>
+      </c>
+      <c r="D322" t="s">
+        <v>25</v>
+      </c>
+      <c r="F322" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>6</v>
+      </c>
+      <c r="C323" t="s">
+        <v>17</v>
+      </c>
+      <c r="E323" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>6</v>
+      </c>
+      <c r="C324" t="s">
+        <v>24</v>
+      </c>
+      <c r="D324" t="s">
+        <v>34</v>
+      </c>
+      <c r="E324" t="s">
+        <v>65</v>
+      </c>
+      <c r="F324" t="s">
+        <v>138</v>
+      </c>
+      <c r="G324" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325" t="s">
+        <v>16</v>
+      </c>
+      <c r="D325" t="s">
+        <v>37</v>
+      </c>
+      <c r="F325" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="E326" t="s">
+        <v>48</v>
+      </c>
+      <c r="F326" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>9</v>
+      </c>
+      <c r="C328" t="s">
+        <v>17</v>
+      </c>
+      <c r="D328" t="s">
+        <v>34</v>
+      </c>
+      <c r="F328" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>7</v>
+      </c>
+      <c r="C329" t="s">
+        <v>19</v>
+      </c>
+      <c r="D329" t="s">
+        <v>39</v>
+      </c>
+      <c r="E329" t="s">
+        <v>42</v>
+      </c>
+      <c r="F329" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>6</v>
+      </c>
+      <c r="F330" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>7</v>
+      </c>
+      <c r="C331" t="s">
+        <v>21</v>
+      </c>
+      <c r="D331" t="s">
+        <v>37</v>
+      </c>
+      <c r="E331" t="s">
+        <v>48</v>
+      </c>
+      <c r="F331" t="s">
+        <v>142</v>
+      </c>
+      <c r="G331" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="E332" t="s">
+        <v>42</v>
+      </c>
+      <c r="F332" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>6</v>
+      </c>
+      <c r="C333" t="s">
+        <v>15</v>
+      </c>
+      <c r="D333" t="s">
+        <v>25</v>
+      </c>
+      <c r="F333" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>7</v>
+      </c>
+      <c r="C334" t="s">
+        <v>19</v>
+      </c>
+      <c r="D334" t="s">
+        <v>36</v>
+      </c>
+      <c r="E334" t="s">
+        <v>47</v>
+      </c>
+      <c r="F334" t="s">
+        <v>137</v>
+      </c>
+      <c r="G334" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>9</v>
+      </c>
+      <c r="E335" t="s">
+        <v>42</v>
+      </c>
+      <c r="F335" t="s">
+        <v>144</v>
+      </c>
+      <c r="G335" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>7</v>
+      </c>
+      <c r="C336" t="s">
+        <v>17</v>
+      </c>
+      <c r="D336" t="s">
+        <v>34</v>
+      </c>
+      <c r="E336" t="s">
+        <v>47</v>
+      </c>
+      <c r="F336" t="s">
+        <v>145</v>
+      </c>
+      <c r="G336" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>6</v>
+      </c>
+      <c r="C337" t="s">
+        <v>16</v>
+      </c>
+      <c r="D337" t="s">
+        <v>26</v>
+      </c>
+      <c r="E337" t="s">
+        <v>42</v>
+      </c>
+      <c r="F337" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>7</v>
+      </c>
+      <c r="F339" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>11</v>
+      </c>
+      <c r="F340" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="F341" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>9</v>
+      </c>
+      <c r="C342" t="s">
+        <v>22</v>
+      </c>
+      <c r="D342" t="s">
+        <v>27</v>
+      </c>
+      <c r="F342" t="s">
+        <v>134</v>
+      </c>
+      <c r="G342" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3869,6 +5799,879 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="E39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" t="s">
+        <v>189</v>
+      </c>
+      <c r="G44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="E50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" t="s">
+        <v>160</v>
+      </c>
+      <c r="F51" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>161</v>
+      </c>
+      <c r="F53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="F54" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55" t="s">
+        <v>197</v>
+      </c>
+      <c r="G55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -3901,22 +6704,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3924,22 +6721,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3947,13 +6738,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3961,10 +6755,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3972,24 +6772,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>134</v>
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4000,16 +6809,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4017,18 +6820,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
-        <v>136</v>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4036,10 +6848,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4047,13 +6865,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4061,19 +6882,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4084,28 +6899,19 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>138</v>
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
@@ -4114,167 +6920,173 @@
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="F16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="F19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
-      <c r="F20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="F21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="F22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="F24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="E27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="E28" t="s">
-        <v>130</v>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4282,9 +7094,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4315,47 +7127,109 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>220</v>
+      </c>
+      <c r="F4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4363,9 +7237,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4396,19 +7270,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4416,36 +7290,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
       <c r="F4" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4453,134 +7312,66 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="F6" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
+      <c r="F8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="F9" t="s">
-        <v>166</v>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4588,10 +7379,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>165</v>
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4599,13 +7396,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>167</v>
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4613,47 +7410,41 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>230</v>
       </c>
       <c r="F12" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4663,56 +7454,38 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>172</v>
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
+      <c r="E18" t="s">
+        <v>232</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4720,60 +7493,337 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>233</v>
+      </c>
+      <c r="F30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
+        <v>238</v>
+      </c>
+      <c r="F40" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
